--- a/Guia de flores silvestres de NL.xlsx
+++ b/Guia de flores silvestres de NL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uanledu-my.sharepoint.com/personal/carlos_martinezhrn_uanl_edu_mx/Documents/Documents/Github Projects/Guia-de-Flores-Silvestres-de-NL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1062CF5-17C6-4B0B-8894-AD4DBA87AA23}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F3B3E57-DB9E-4A38-91D1-102E52D6F6C0}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="2" activeTab="6" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12504" firstSheet="6" activeTab="6" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario de Floracion" sheetId="6" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="38">
   <si>
     <t>Nombre Comun</t>
   </si>
@@ -97,175 +97,73 @@
     <t>Numero</t>
   </si>
   <si>
-    <t>Ahuehuete(Sabino)</t>
-  </si>
-  <si>
-    <t>Nogal de nuez encarcelada</t>
-  </si>
-  <si>
-    <t>Nogal de Nuez Lisa</t>
-  </si>
-  <si>
-    <t>Palma Sabal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pino Blanco </t>
-  </si>
-  <si>
-    <t>pino teocote</t>
-  </si>
-  <si>
-    <t>sauce de rio</t>
-  </si>
-  <si>
-    <t>anacua</t>
-  </si>
-  <si>
-    <t>ebano</t>
-  </si>
-  <si>
-    <t>encino blanco</t>
-  </si>
-  <si>
-    <t>encino blavo (molino)</t>
-  </si>
-  <si>
-    <t>encino duraznillo</t>
-  </si>
-  <si>
-    <t>encino memelito</t>
-  </si>
-  <si>
-    <t>olmo</t>
-  </si>
-  <si>
-    <t>palo blanco</t>
-  </si>
-  <si>
-    <t>anacahuita</t>
-  </si>
-  <si>
-    <t>chaparro prieto</t>
-  </si>
-  <si>
-    <t>chapote amarillo</t>
-  </si>
-  <si>
-    <t>chapote negro</t>
-  </si>
-  <si>
-    <t>colorin</t>
-  </si>
-  <si>
-    <t>coma</t>
-  </si>
-  <si>
-    <t>corona de san pedro</t>
-  </si>
-  <si>
-    <t>duraznillo</t>
-  </si>
-  <si>
-    <t>hierba de potro</t>
-  </si>
-  <si>
-    <t>huizache</t>
-  </si>
-  <si>
-    <t>jaboncillo</t>
-  </si>
-  <si>
-    <t>madroño</t>
-  </si>
-  <si>
-    <t>mezquite</t>
-  </si>
-  <si>
-    <t>mimbre</t>
-  </si>
-  <si>
-    <t>monilla</t>
-  </si>
-  <si>
-    <t>palo verde</t>
-  </si>
-  <si>
-    <t>pino piñonero</t>
-  </si>
-  <si>
-    <t>retama</t>
-  </si>
-  <si>
-    <t>tronadora</t>
-  </si>
-  <si>
-    <t>cenizo</t>
-  </si>
-  <si>
-    <t>dodonea</t>
-  </si>
-  <si>
-    <t>granjeno</t>
-  </si>
-  <si>
-    <t>guajillo</t>
-  </si>
-  <si>
-    <t>lantana</t>
-  </si>
-  <si>
-    <t>lupino</t>
-  </si>
-  <si>
-    <t>veintiunilla</t>
-  </si>
-  <si>
-    <t>biznaga</t>
-  </si>
-  <si>
-    <t>gobernadora</t>
-  </si>
-  <si>
-    <t>lechuguilla</t>
-  </si>
-  <si>
-    <t>maguey</t>
-  </si>
-  <si>
-    <t>nopal</t>
-  </si>
-  <si>
-    <t>ocotillo(Albarda)</t>
-  </si>
-  <si>
-    <t>palma yuca</t>
-  </si>
-  <si>
-    <t>pitaya</t>
-  </si>
-  <si>
-    <t>sotol</t>
-  </si>
-  <si>
-    <t>Alamillo</t>
-  </si>
-  <si>
-    <t>Alamo de rio</t>
-  </si>
-  <si>
-    <t>Encino de asta (negro)</t>
-  </si>
-  <si>
-    <t>Encino Roble</t>
-  </si>
-  <si>
-    <t>Encino siempreverde</t>
-  </si>
-  <si>
     <t>numero</t>
   </si>
   <si>
     <t>nombre</t>
+  </si>
+  <si>
+    <t>Nombre comun</t>
+  </si>
+  <si>
+    <t>Nombre Cientifico</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Riego</t>
+  </si>
+  <si>
+    <t>Raiz</t>
+  </si>
+  <si>
+    <t>Follaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crecimiento </t>
+  </si>
+  <si>
+    <t>Habitats</t>
+  </si>
+  <si>
+    <t>Suelo</t>
+  </si>
+  <si>
+    <t>Anidasion</t>
+  </si>
+  <si>
+    <t>Aroma</t>
+  </si>
+  <si>
+    <t>alto</t>
+  </si>
+  <si>
+    <t>ancho</t>
+  </si>
+  <si>
+    <t>separacion</t>
+  </si>
+  <si>
+    <t>vida</t>
+  </si>
+  <si>
+    <t>Breve Descripcion</t>
+  </si>
+  <si>
+    <t>Flores</t>
+  </si>
+  <si>
+    <t>Hojas</t>
+  </si>
+  <si>
+    <t>Frutos</t>
+  </si>
+  <si>
+    <t>Paleta de color</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forma de hoja </t>
   </si>
 </sst>
 </file>
@@ -366,9 +264,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,21 +622,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC91A09-05C3-4883-A2D9-7E86495DA467}">
-  <dimension ref="A1:AA56"/>
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.44140625" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
-    <col min="4" max="27" width="5.5546875" customWidth="1"/>
+    <col min="4" max="16" width="5.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -753,899 +649,515 @@
       <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="10" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="10"/>
+        <v>4</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="H1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="10"/>
+        <v>6</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="10"/>
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
       <c r="L1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="10"/>
+        <v>10</v>
+      </c>
+      <c r="M1" s="10" t="s">
+        <v>11</v>
+      </c>
       <c r="N1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="10"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="P1" s="10"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G3" s="3"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F6" s="2"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G9" s="3"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="6"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F11" s="2"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="F12" s="2"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G13" s="3"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G14" s="3"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="5"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="G15" s="3"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F18" s="2"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F19" s="2"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
-        <v>28</v>
-      </c>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="8"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G22" s="3"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F23" s="2"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G24" s="3"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
-        <v>35</v>
-      </c>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="9"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="R30" s="7"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="G30" s="3"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
-        <v>40</v>
-      </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G33" s="3"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="5"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G34" s="3"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="5"/>
-      <c r="T35" s="8"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G35" s="3"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="9"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E36" s="1"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="6"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F37" s="2"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="6"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F38" s="2"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>47</v>
-      </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="5"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F39" s="2"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="6"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="8"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="G40" s="3"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="9"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
-        <v>49</v>
-      </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="7"/>
-      <c r="S41" s="7"/>
-      <c r="T41" s="8"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F41" s="2"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="9"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="8"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="K42" s="7"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="9"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
-        <v>51</v>
-      </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F43" s="2"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="9"/>
-      <c r="Y45" s="9"/>
-      <c r="Z45" s="9"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F45" s="2"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="3"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F46" s="2"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
-        <v>55</v>
-      </c>
-      <c r="U47" s="8"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="9"/>
-      <c r="Y47" s="9"/>
-      <c r="Z47" s="9"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="M47" s="3"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
-        <v>56</v>
-      </c>
-      <c r="I48" s="2"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G48" s="3"/>
+      <c r="H48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="2"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="4"/>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="7"/>
-      <c r="S49" s="7"/>
-      <c r="T49" s="8"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G49" s="3"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="8"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
-      <c r="N50" s="5"/>
-      <c r="O50" s="5"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="H50" s="4"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="6"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
-        <v>59</v>
-      </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="5"/>
-      <c r="O51" s="5"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G51" s="3"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
-        <v>60</v>
-      </c>
-      <c r="I52" s="2"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="6"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G52" s="3"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="6"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
-        <v>61</v>
-      </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="5"/>
-      <c r="O53" s="5"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F53" s="2"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
-        <v>62</v>
-      </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F54" s="2"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>63</v>
-      </c>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="6"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="G55" s="3"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="6"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>64</v>
-      </c>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="5"/>
-      <c r="O56" s="5"/>
-      <c r="P56" s="6"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:W1"/>
-    <mergeCell ref="X1:Y1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1665,10 +1177,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1803,10 +1315,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -1941,10 +1453,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2077,10 +1589,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2120,10 +1632,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2258,10 +1770,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2386,74 +1898,496 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA025CB-858A-4141-A076-446EC6235A76}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC64D970-E413-4C6A-8FCF-EC3756BD9B5E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D866D7FE-1E79-4B8D-8A0D-58C384AA3D7E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F30B30-D998-4A26-8452-095D8DB5FF89}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3F6D30-994B-4A52-AB2A-47A9EC09BC9D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B1A960-C3DF-4757-91F5-707470A50B41}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2463,17 +2397,17 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B24"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2608,10 +2542,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">

--- a/Guia de flores silvestres de NL.xlsx
+++ b/Guia de flores silvestres de NL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uanledu-my.sharepoint.com/personal/carlos_martinezhrn_uanl_edu_mx/Documents/Documents/Github Projects/Guia-de-Flores-Silvestres-de-NL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F3B3E57-DB9E-4A38-91D1-102E52D6F6C0}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4B1F5FA-F613-407B-9420-962AE1BECF06}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12504" firstSheet="6" activeTab="6" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
+    <workbookView xWindow="14916" yWindow="72" windowWidth="8052" windowHeight="9168" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario de Floracion" sheetId="6" r:id="rId1"/>
@@ -23,11 +23,11 @@
     <sheet name="Crecimiento" sheetId="14" r:id="rId8"/>
     <sheet name="Duracion" sheetId="12" r:id="rId9"/>
     <sheet name="Tipo de hoja" sheetId="13" r:id="rId10"/>
-    <sheet name="Forma de Flor" sheetId="8" r:id="rId11"/>
+    <sheet name="Forma de hoja" sheetId="7" r:id="rId11"/>
     <sheet name="Borde de hoja" sheetId="11" r:id="rId12"/>
     <sheet name="Acomodo de hojas" sheetId="10" r:id="rId13"/>
     <sheet name="Tipo de flor" sheetId="9" r:id="rId14"/>
-    <sheet name="Forma de hoja" sheetId="7" r:id="rId15"/>
+    <sheet name="Forma de Flor" sheetId="8" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
   <si>
     <t>Nombre Comun</t>
   </si>
@@ -164,6 +164,66 @@
   </si>
   <si>
     <t xml:space="preserve">forma de hoja </t>
+  </si>
+  <si>
+    <t>Herbacea</t>
+  </si>
+  <si>
+    <t>Arbusto/ Subarbusto</t>
+  </si>
+  <si>
+    <t>Enredadera/ Trepadora</t>
+  </si>
+  <si>
+    <t>Suculenta</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Que no desarrolla tejidos leñosos</t>
+  </si>
+  <si>
+    <t>Planta leñosa en la base, generalmente ramificada con la parte superior herbacea</t>
+  </si>
+  <si>
+    <t>Planta herbacea que nace del suelo y que crece trepandose sobre otra planta o soporte</t>
+  </si>
+  <si>
+    <t>Planta de hojas carnosas y gruesas</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Bianual</t>
+  </si>
+  <si>
+    <t>Perenne</t>
+  </si>
+  <si>
+    <t>Dura un solo periodo de crecimiento, semilla y muere</t>
+  </si>
+  <si>
+    <t>Dura generalmente dos años antes de producir semilla y morir</t>
+  </si>
+  <si>
+    <t>Dura  mas de dos años en los que tiene periodos de crecimiento y descanso</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>Compuesta</t>
+  </si>
+  <si>
+    <t>descripcion</t>
+  </si>
+  <si>
+    <t>formada por una sola lamina</t>
+  </si>
+  <si>
+    <t>formada por varias laminas menores llamadas foliolos que son de aspecto similar a hojas , que pueden incluso tener un pequeño peciolo</t>
   </si>
 </sst>
 </file>
@@ -253,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -264,7 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -295,7 +354,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AB0CEB5-A3B9-4864-8D50-BE12DA58B417}" name="Tabla1" displayName="Tabla1" ref="A1:C56" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7AB0CEB5-A3B9-4864-8D50-BE12DA58B417}" name="Tabla1" displayName="Tabla1" ref="A1:C113" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{4BED9D17-D0AA-43AE-8525-6573ACA7C432}" name="Numero"/>
     <tableColumn id="2" xr3:uid="{5123ABDC-FE0B-4A22-AAC6-145C80C74DD1}" name="Nombre Comun"/>
@@ -622,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC91A09-05C3-4883-A2D9-7E86495DA467}">
-  <dimension ref="A1:P56"/>
+  <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +695,7 @@
     <col min="4" max="16" width="5.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -646,73 +705,72 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="10"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -720,14 +778,14 @@
       <c r="G6" s="3"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -735,7 +793,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -743,7 +801,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -753,28 +811,28 @@
       <c r="I10" s="5"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -782,7 +840,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -791,7 +849,7 @@
       <c r="I15" s="5"/>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1157,6 +1215,291 @@
       <c r="I56" s="5"/>
       <c r="J56" s="6"/>
     </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1167,135 +1510,49 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8D578D-BA4B-4658-A5BF-A43485E2E2C9}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1304,94 +1561,100 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328CEDD2-A37B-4821-BBAA-F8B2A7BE9943}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4394C4EC-FED3-4EDC-8CA6-309403EF63A3}">
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1443,135 +1706,56 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8675E87B-FCEC-4845-82EC-2C57601A4DC2}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1581,36 +1765,44 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03309ECA-516C-4F92-B9D0-29D098E6918D}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1622,135 +1814,76 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD894A4-5D2A-4587-A984-1D49EE551155}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1759,136 +1892,72 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4394C4EC-FED3-4EDC-8CA6-309403EF63A3}">
-  <dimension ref="A1:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328CEDD2-A37B-4821-BBAA-F8B2A7BE9943}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B24"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1898,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA025CB-858A-4141-A076-446EC6235A76}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1987,6 +2056,66 @@
         <v>36</v>
       </c>
     </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1994,13 +2123,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC64D970-E413-4C6A-8FCF-EC3756BD9B5E}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2065,6 +2195,121 @@
       </c>
       <c r="U1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2074,13 +2319,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D866D7FE-1E79-4B8D-8A0D-58C384AA3D7E}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U1"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2145,6 +2393,226 @@
       </c>
       <c r="U1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2154,13 +2622,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F30B30-D998-4A26-8452-095D8DB5FF89}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2225,6 +2696,126 @@
       </c>
       <c r="U1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2234,13 +2825,14 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3F6D30-994B-4A52-AB2A-47A9EC09BC9D}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:U1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2305,6 +2897,166 @@
       </c>
       <c r="U1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2314,13 +3066,14 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B1A960-C3DF-4757-91F5-707470A50B41}">
-  <dimension ref="A1:U1"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -2385,6 +3138,146 @@
       </c>
       <c r="U1" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2394,135 +3287,71 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2A3DCD-B2B5-43BB-843C-2C77EB9D76CD}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2532,135 +3361,59 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F23552-B34C-4A22-AFEB-7356EB60BCD0}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/Guia de flores silvestres de NL.xlsx
+++ b/Guia de flores silvestres de NL.xlsx
@@ -8,26 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uanledu-my.sharepoint.com/personal/carlos_martinezhrn_uanl_edu_mx/Documents/Documents/Github Projects/Guia-de-Flores-Silvestres-de-NL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4B1F5FA-F613-407B-9420-962AE1BECF06}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41295659-A314-4056-8C2F-F3A6FAF41C20}"/>
   <bookViews>
-    <workbookView xWindow="14916" yWindow="72" windowWidth="8052" windowHeight="9168" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" activeTab="2" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario de Floracion" sheetId="6" r:id="rId1"/>
-    <sheet name="Flores Verdes" sheetId="15" r:id="rId2"/>
-    <sheet name="Flores Blancas" sheetId="16" r:id="rId3"/>
-    <sheet name="Flores amarillas" sheetId="17" r:id="rId4"/>
-    <sheet name="Flores Lilas y Rosas" sheetId="18" r:id="rId5"/>
-    <sheet name="Flores Naranjas y Rojas" sheetId="19" r:id="rId6"/>
-    <sheet name="Flores Azules y Moradas" sheetId="20" r:id="rId7"/>
-    <sheet name="Crecimiento" sheetId="14" r:id="rId8"/>
-    <sheet name="Duracion" sheetId="12" r:id="rId9"/>
-    <sheet name="Tipo de hoja" sheetId="13" r:id="rId10"/>
-    <sheet name="Forma de hoja" sheetId="7" r:id="rId11"/>
-    <sheet name="Borde de hoja" sheetId="11" r:id="rId12"/>
-    <sheet name="Acomodo de hojas" sheetId="10" r:id="rId13"/>
-    <sheet name="Tipo de flor" sheetId="9" r:id="rId14"/>
-    <sheet name="Forma de Flor" sheetId="8" r:id="rId15"/>
+    <sheet name="Indice Taxonomico" sheetId="21" r:id="rId2"/>
+    <sheet name="Glosario de Terminos" sheetId="22" r:id="rId3"/>
+    <sheet name="Flores Verdes" sheetId="15" r:id="rId4"/>
+    <sheet name="Flores Blancas" sheetId="16" r:id="rId5"/>
+    <sheet name="Flores amarillas" sheetId="17" r:id="rId6"/>
+    <sheet name="Flores Lilas y Rosas" sheetId="18" r:id="rId7"/>
+    <sheet name="Flores Naranjas y Rojas" sheetId="19" r:id="rId8"/>
+    <sheet name="Flores Azules y Moradas" sheetId="20" r:id="rId9"/>
+    <sheet name="Crecimiento" sheetId="14" r:id="rId10"/>
+    <sheet name="Duracion" sheetId="12" r:id="rId11"/>
+    <sheet name="Tipo de hoja" sheetId="13" r:id="rId12"/>
+    <sheet name="Forma de hoja" sheetId="7" r:id="rId13"/>
+    <sheet name="Borde de hoja" sheetId="11" r:id="rId14"/>
+    <sheet name="Acomodo de hojas" sheetId="10" r:id="rId15"/>
+    <sheet name="Tipo de flor" sheetId="9" r:id="rId16"/>
+    <sheet name="Forma de Flor" sheetId="8" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="75">
   <si>
     <t>Nombre Comun</t>
   </si>
@@ -224,6 +226,57 @@
   </si>
   <si>
     <t>formada por varias laminas menores llamadas foliolos que son de aspecto similar a hojas , que pueden incluso tener un pequeño peciolo</t>
+  </si>
+  <si>
+    <t>Pag</t>
+  </si>
+  <si>
+    <t>Alismataceae</t>
+  </si>
+  <si>
+    <t>Amaryllidaceae</t>
+  </si>
+  <si>
+    <t>Araceae</t>
+  </si>
+  <si>
+    <t>Bromeliaceae</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Acuatico</t>
+  </si>
+  <si>
+    <t>Aereo</t>
+  </si>
+  <si>
+    <t>Alcaloides</t>
+  </si>
+  <si>
+    <t>Antera</t>
+  </si>
+  <si>
+    <t>Apiculado/da</t>
+  </si>
+  <si>
+    <t>Area de Distribucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Planta adaptada a los medios muy húmedos o acuáticos, tales como. lagos, estanques y charcos.</t>
+  </si>
+  <si>
+    <t>Dicho de un órgano que se desarrolla en el aire, en lugar del suelo o el agua</t>
+  </si>
+  <si>
+    <t>Compuestos que contienen nitrógeno, de gusto amargo que se encuentran en la naturaleza y se pueden utilizar con finalidades terapéuticas En algunos casos, estos componentes son responsables de la toxicidad de ciertas plantas.</t>
+  </si>
+  <si>
+    <t>Parte superior del estambre que contiene el polen.</t>
+  </si>
+  <si>
+    <t>Provisto de una punta pequeña y corta.</t>
   </si>
 </sst>
 </file>
@@ -349,8 +402,70 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1522">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9B07443-7965-3D16-892B-0031FDCCBFC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1973580" y="548640"/>
+          <a:ext cx="15240" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC91A09-05C3-4883-A2D9-7E86495DA467}">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1509,6 +1624,142 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2A3DCD-B2B5-43BB-843C-2C77EB9D76CD}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F23552-B34C-4A22-AFEB-7356EB60BCD0}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A8D578D-BA4B-4658-A5BF-A43485E2E2C9}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -1560,7 +1811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4394C4EC-FED3-4EDC-8CA6-309403EF63A3}">
   <dimension ref="A1:C24"/>
   <sheetViews>
@@ -1704,7 +1955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8675E87B-FCEC-4845-82EC-2C57601A4DC2}">
   <dimension ref="A1:C7"/>
   <sheetViews>
@@ -1763,7 +2014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03309ECA-516C-4F92-B9D0-29D098E6918D}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1812,7 +2063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD894A4-5D2A-4587-A984-1D49EE551155}">
   <dimension ref="A1:C11"/>
   <sheetViews>
@@ -1891,7 +2142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{328CEDD2-A37B-4821-BBAA-F8B2A7BE9943}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1966,6 +2217,566 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368BAEC4-711F-436A-97B4-FBDDC2DD607B}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D425EF40-5CC5-4238-8A62-04CC7ED15863}">
+  <dimension ref="A1:C85"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA025CB-858A-4141-A076-446EC6235A76}">
   <dimension ref="A1:U13"/>
   <sheetViews>
@@ -2121,7 +2932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC64D970-E413-4C6A-8FCF-EC3756BD9B5E}">
   <dimension ref="A1:U24"/>
   <sheetViews>
@@ -2317,7 +3128,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D866D7FE-1E79-4B8D-8A0D-58C384AA3D7E}">
   <dimension ref="A1:U45"/>
   <sheetViews>
@@ -2620,7 +3431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47F30B30-D998-4A26-8452-095D8DB5FF89}">
   <dimension ref="A1:U25"/>
   <sheetViews>
@@ -2823,7 +3634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3F6D30-994B-4A52-AB2A-47A9EC09BC9D}">
   <dimension ref="A1:U33"/>
   <sheetViews>
@@ -3064,7 +3875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71B1A960-C3DF-4757-91F5-707470A50B41}">
   <dimension ref="A1:U29"/>
   <sheetViews>
@@ -3283,140 +4094,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C2A3DCD-B2B5-43BB-843C-2C77EB9D76CD}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1F23552-B34C-4A22-AFEB-7356EB60BCD0}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Guia de flores silvestres de NL.xlsx
+++ b/Guia de flores silvestres de NL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uanledu-my.sharepoint.com/personal/carlos_martinezhrn_uanl_edu_mx/Documents/Documents/Github Projects/Guia-de-Flores-Silvestres-de-NL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Github Projects\Guia-de-Flores-Silvestres-de-NL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="8_{2025911F-8D31-4388-B950-35610A59B777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{41295659-A314-4056-8C2F-F3A6FAF41C20}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F256A-E2CB-4D68-8587-C8859205A6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12504" activeTab="2" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
+    <workbookView xWindow="14652" yWindow="36" windowWidth="8388" windowHeight="9168" xr2:uid="{E5260BE0-913F-4F2E-A4BB-A577272EBBD7}"/>
   </bookViews>
   <sheets>
     <sheet name="Calendario de Floracion" sheetId="6" r:id="rId1"/>
@@ -30,6 +30,7 @@
     <sheet name="Acomodo de hojas" sheetId="10" r:id="rId15"/>
     <sheet name="Tipo de flor" sheetId="9" r:id="rId16"/>
     <sheet name="Forma de Flor" sheetId="8" r:id="rId17"/>
+    <sheet name="Fruto o Semilla" sheetId="23" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="191">
   <si>
     <t>Nombre Comun</t>
   </si>
@@ -277,6 +278,354 @@
   </si>
   <si>
     <t>Provisto de una punta pequeña y corta.</t>
+  </si>
+  <si>
+    <t>Commelinaceae</t>
+  </si>
+  <si>
+    <t>Cyperaceae</t>
+  </si>
+  <si>
+    <t>Iridaceae</t>
+  </si>
+  <si>
+    <t>Areas Perturbadas</t>
+  </si>
+  <si>
+    <t>Axila</t>
+  </si>
+  <si>
+    <t>Bracteas</t>
+  </si>
+  <si>
+    <t>Cabillo</t>
+  </si>
+  <si>
+    <t>Caliz</t>
+  </si>
+  <si>
+    <t>Canescencia</t>
+  </si>
+  <si>
+    <t>Cardenolidos</t>
+  </si>
+  <si>
+    <t>Cespitosa</t>
+  </si>
+  <si>
+    <t>Clorofila</t>
+  </si>
+  <si>
+    <t>Corola</t>
+  </si>
+  <si>
+    <t>Cuculado/da</t>
+  </si>
+  <si>
+    <t>Cuticula Cerosa</t>
+  </si>
+  <si>
+    <t>Decumbente</t>
+  </si>
+  <si>
+    <t>Dehiscencia</t>
+  </si>
+  <si>
+    <t>Dormancia</t>
+  </si>
+  <si>
+    <t>Endemico</t>
+  </si>
+  <si>
+    <t>Filiforme</t>
+  </si>
+  <si>
+    <t>En forma fina y alargada como un hilo</t>
+  </si>
+  <si>
+    <t>Linear</t>
+  </si>
+  <si>
+    <t>de forma larga y angosta</t>
+  </si>
+  <si>
+    <t>Lanceolada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">en forma de lanza, mas ancha en la mitad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ovada </t>
+  </si>
+  <si>
+    <t>Presenta forma de huevo</t>
+  </si>
+  <si>
+    <t>Eliptica</t>
+  </si>
+  <si>
+    <t>de Forma ovalada</t>
+  </si>
+  <si>
+    <t>Oblonga</t>
+  </si>
+  <si>
+    <t>presenta forma alargada con los lados ligeramente paralelos</t>
+  </si>
+  <si>
+    <t>Sagitada</t>
+  </si>
+  <si>
+    <t>en forma de saeta, o punta de flecha</t>
+  </si>
+  <si>
+    <t>Deltoide</t>
+  </si>
+  <si>
+    <t>de forma triangular</t>
+  </si>
+  <si>
+    <t>Cordada</t>
+  </si>
+  <si>
+    <t>en forma de corazón</t>
+  </si>
+  <si>
+    <t>Obovada</t>
+  </si>
+  <si>
+    <t>de forma inversamente inversamente ovada, con la parte ancha en el apice</t>
+  </si>
+  <si>
+    <t>Oblanceolada</t>
+  </si>
+  <si>
+    <t>de forma inversamente lanceolada, con la parte mas ancha en el apice</t>
+  </si>
+  <si>
+    <t>Espatulada</t>
+  </si>
+  <si>
+    <t>en forma de cuchara o espatula</t>
+  </si>
+  <si>
+    <t>Orbicular</t>
+  </si>
+  <si>
+    <t>en forma de ciruclo</t>
+  </si>
+  <si>
+    <t>Reniforme</t>
+  </si>
+  <si>
+    <t>en forma de riñon</t>
+  </si>
+  <si>
+    <t>Lobulada</t>
+  </si>
+  <si>
+    <t>con division en varios lobulos</t>
+  </si>
+  <si>
+    <t>Pinnatifida</t>
+  </si>
+  <si>
+    <t>cortada profundamente sin llegar a la nervadura central</t>
+  </si>
+  <si>
+    <t>Pinnada lobulada</t>
+  </si>
+  <si>
+    <t>dos hileras de lobulos variables</t>
+  </si>
+  <si>
+    <t>Palmeada</t>
+  </si>
+  <si>
+    <t>Dividida en varios lobulos o foliolos dispuestos como dedos de una mano</t>
+  </si>
+  <si>
+    <t>Disecta</t>
+  </si>
+  <si>
+    <t>forma irregular con muchas incisiones profundas</t>
+  </si>
+  <si>
+    <t>Escama</t>
+  </si>
+  <si>
+    <t>hoja pequeña plana que asemeja una escama</t>
+  </si>
+  <si>
+    <t>Trifoliada</t>
+  </si>
+  <si>
+    <t>cada hoja compuesta tiene tres foliolos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pinnada </t>
+  </si>
+  <si>
+    <t>Bipinnada</t>
+  </si>
+  <si>
+    <t>dos veces pinnada</t>
+  </si>
+  <si>
+    <t>presenta un raquis central y foliolos a ambos lados. Puede ser paripinnada cuando los foliolos son pares, o imparipinnada cuando son impares</t>
+  </si>
+  <si>
+    <t>Entero</t>
+  </si>
+  <si>
+    <t>Dentado</t>
+  </si>
+  <si>
+    <t>Aserrado a manera de sierra</t>
+  </si>
+  <si>
+    <t>Crenado</t>
+  </si>
+  <si>
+    <t>Lobulado</t>
+  </si>
+  <si>
+    <t>Sinuado</t>
+  </si>
+  <si>
+    <t>liso, sin dientes ni lobulos</t>
+  </si>
+  <si>
+    <t>Borde con dientes agudos y base redondeada</t>
+  </si>
+  <si>
+    <t>con los dientes inclinados hacia la punta</t>
+  </si>
+  <si>
+    <t>margen con borde en ondas</t>
+  </si>
+  <si>
+    <t>margen formado por entrantes y salientes redondas</t>
+  </si>
+  <si>
+    <t>margen con concavidades y convexidades muy ligeras</t>
+  </si>
+  <si>
+    <t>Basal</t>
+  </si>
+  <si>
+    <t>Alterno</t>
+  </si>
+  <si>
+    <t>Opuesto</t>
+  </si>
+  <si>
+    <t>Verticilado</t>
+  </si>
+  <si>
+    <t>todas las hojas salen desde un mismo punto, la base del tallo</t>
+  </si>
+  <si>
+    <t>una hoja por nudo</t>
+  </si>
+  <si>
+    <t>dos hojas salen del mismo nudo, opuesto una de la otra</t>
+  </si>
+  <si>
+    <t>tres o mas hojas se insertan en cada nudo</t>
+  </si>
+  <si>
+    <t>Flor solitaria</t>
+  </si>
+  <si>
+    <t>Umbela</t>
+  </si>
+  <si>
+    <t>Corimbo</t>
+  </si>
+  <si>
+    <t>Cima</t>
+  </si>
+  <si>
+    <t>Espadice</t>
+  </si>
+  <si>
+    <t>Espiga</t>
+  </si>
+  <si>
+    <t>Racimo</t>
+  </si>
+  <si>
+    <t>Panicula</t>
+  </si>
+  <si>
+    <t>Amento</t>
+  </si>
+  <si>
+    <t>Directa a lo largo del tallo</t>
+  </si>
+  <si>
+    <t>Asimetrica</t>
+  </si>
+  <si>
+    <t>Radiada</t>
+  </si>
+  <si>
+    <t>Radiada Cabezuela</t>
+  </si>
+  <si>
+    <t>Bilateral</t>
+  </si>
+  <si>
+    <t>Papilionada</t>
+  </si>
+  <si>
+    <t>Tubular</t>
+  </si>
+  <si>
+    <t>Bilabiada</t>
+  </si>
+  <si>
+    <t>Campanulada</t>
+  </si>
+  <si>
+    <t>Ciatio</t>
+  </si>
+  <si>
+    <t>Rama pequeña</t>
+  </si>
+  <si>
+    <t>Enves</t>
+  </si>
+  <si>
+    <t>Epidermis</t>
+  </si>
+  <si>
+    <t>Epifita</t>
+  </si>
+  <si>
+    <t>Erecto</t>
+  </si>
+  <si>
+    <t>Especie en peligro de extincion</t>
+  </si>
+  <si>
+    <t>Especie Vulnerable</t>
+  </si>
+  <si>
+    <t>Especie</t>
+  </si>
+  <si>
+    <t>Estigma</t>
+  </si>
+  <si>
+    <t>Estipula</t>
+  </si>
+  <si>
+    <t>Aquenio</t>
+  </si>
+  <si>
+    <t>que es seco e indehiscente</t>
   </si>
 </sst>
 </file>
@@ -798,13 +1147,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC91A09-05C3-4883-A2D9-7E86495DA467}">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
     <col min="4" max="16" width="5.5546875" customWidth="1"/>
@@ -1816,12 +2165,13 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1839,115 +2189,253 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C15" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>137</v>
+      </c>
+      <c r="C24" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -1960,12 +2448,13 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1983,30 +2472,66 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -2042,20 +2567,44 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2068,7 +2617,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2091,50 +2640,80 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2726,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2170,45 +2749,167 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679914C1-D245-497C-BF78-CC85EF084D2D}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2218,10 +2919,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368BAEC4-711F-436A-97B4-FBDDC2DD607B}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2288,6 +2989,46 @@
         <v>62</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2297,8 +3038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D425EF40-5CC5-4238-8A62-04CC7ED15863}">
   <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2384,125 +3125,203 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
@@ -2781,7 +3600,7 @@
   <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
